--- a/Dataset/Folds/Fold_4/Excel/2.xlsx
+++ b/Dataset/Folds/Fold_4/Excel/2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7885" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8461" uniqueCount="1203">
   <si>
     <t>Doi</t>
   </si>
@@ -3707,6 +3707,336 @@
   </si>
   <si>
     <t>[Su-fen%Zhang%NULL%1,                                Jiu-ling%Tuo%NULL%1,                                Xu-bin%Huang%NULL%1,                                Xun%Zhu%NULL%1,                                Ding-mei%Zhang%NULL%1,                                Kai%Zhou%NULL%1,                                Lei%Yuan%NULL%1,                                Hong-jiao%Luo%NULL%1,                                Bo-jian%Zheng%NULL%1,                                Kwok-yung%Yuen%NULL%1,                                Meng-feng%Li%NULL%1,                                Kai-yuan%Cao%NULL%1,                                Lin%Xu%NULL%1,                                Stefan%Pöhlmann%NULL%1,                               Su-fen%Zhang%NULL%1,                               Jiu-ling%Tuo%NULL%1,                               Xu-bin%Huang%NULL%1,                               Xun%Zhu%NULL%1,                               Ding-mei%Zhang%NULL%1,                               Kai%Zhou%NULL%1,                               Lei%Yuan%NULL%1,                               Hong-jiao%Luo%NULL%1,                               Bo-jian%Zheng%NULL%1,                               Kwok-yung%Yuen%NULL%1,                               Meng-feng%Li%NULL%1,                               Kai-yuan%Cao%NULL%1,                               Lin%Xu%NULL%1,                               Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,                                 Dangui%Zhang%danguizhang@stu.edu.cn%1,                                 Hui%Pan%michaelpan@stu.edu.cn%1,                                 Fan%Zhang%lemon_fan@163.com%1,                                 Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                                 Frieda%Law%lawf@stu.edu.cn%1,                                 H Rogier%van Doorn%hrogier@gmail.com%1,                                 Beiyan%Wu%1261305798@qq.com%1,                                 William%Ba-Thein%wbathein@stu.edu.cn%1,                                Binglin%Cui%binglincui@stu.edu.cn%1,                                Dangui%Zhang%danguizhang@stu.edu.cn%1,                                Hui%Pan%michaelpan@stu.edu.cn%1,                                Fan%Zhang%lemon_fan@163.com%1,                                Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                                Frieda%Law%lawf@stu.edu.cn%1,                                H Rogier%van Doorn%hrogier@gmail.com%1,                                Beiyan%Wu%1261305798@qq.com%1,                                William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,                                 Lifeng%Pan%NULL%1,                                 Qiao%Sun%NULL%1,                                 Weiping%Zhu%NULL%1,                                 Linying%Zhu%NULL%1,                                 Chuchu%Ye%NULL%1,                                 Caoyi%Xue%NULL%1,                                 Yuanping%Wang%NULL%1,                                 Qing%Liu%NULL%1,                                 Ping%Ma%NULL%1,                                 Huifang%Qiu%NULL%1,                                 Srinand%Sreevatsan%NULL%1,                                Yifei%Fu%NULL%1,                                Lifeng%Pan%NULL%1,                                Qiao%Sun%NULL%1,                                Weiping%Zhu%NULL%1,                                Linying%Zhu%NULL%1,                                Chuchu%Ye%NULL%1,                                Caoyi%Xue%NULL%1,                                Yuanping%Wang%NULL%1,                                Qing%Liu%NULL%1,                                Ping%Ma%NULL%1,                                Huifang%Qiu%NULL%1,                                Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,                                 Mumtaz Cem%Sirin%NULL%1,                                Safak%Goktas%NULL%1,                                Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,                                 Nina%Moe%NULL%1,                                 Sidsel%Krokstad%NULL%2,                                 Andreas%Christensen%NULL%2,                                 Lars Høsøien%Skanke%NULL%2,                                 Svein Arne%Nordbø%NULL%2,                                 Henrik%Døllner%henrik.dollner@ntnu.no%2,                                Inger%Heimdal%NULL%1,                                Nina%Moe%NULL%2,                                Sidsel%Krokstad%NULL%2,                                Andreas%Christensen%NULL%2,                                Lars Høsøien%Skanke%NULL%2,                                Svein Arne%Nordbø%NULL%2,                                Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,                                 Inger Heimdal%Stenseng%NULL%1,                                 Sidsel%Krokstad%NULL%0,                                 Andreas%Christensen%NULL%0,                                 Lars Høsøien%Skanke%NULL%0,                                 Kari Ravndal%Risnes%NULL%1,                                 Svein Arne%Nordbø%NULL%0,                                 Henrik%Døllner%henrik.dollner@ntnu.no%0,                                Nina%Moe%NULL%0,                                Inger Heimdal%Stenseng%NULL%1,                                Sidsel%Krokstad%NULL%0,                                Andreas%Christensen%NULL%0,                                Lars Høsøien%Skanke%NULL%0,                                Kari Ravndal%Risnes%NULL%1,                                Svein Arne%Nordbø%NULL%0,                                Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,                                 Andrej%Steyer%NULL%1,                                 Marko%Pokorn%NULL%1,                                 Tatjana%Mrvič%NULL%1,                                 Štefan%Grosek%NULL%1,                                 Franc%Strle%NULL%1,                                 Lara%Lusa%NULL%1,                                 Miroslav%Petrovec%NULL%1,                                 Oliver%Schildgen%NULL%1,                                Monika%Jevšnik%NULL%1,                                Andrej%Steyer%NULL%1,                                Marko%Pokorn%NULL%1,                                Tatjana%Mrvič%NULL%1,                                Štefan%Grosek%NULL%1,                                Franc%Strle%NULL%1,                                Lara%Lusa%NULL%1,                                Miroslav%Petrovec%NULL%1,                                Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,                                 Matti%Waris%NULL%1,                                 Kari%Johansen%NULL%1,                                 René%Snacken%NULL%1,                                 Pasi%Penttinen%NULL%1,                                 NULL%NULL%NULL%2,                                Eeva K%Broberg%NULL%1,                                Matti%Waris%NULL%1,                                Kari%Johansen%NULL%1,                                René%Snacken%NULL%1,                                Pasi%Penttinen%NULL%1,                                NULL%NULL%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,                                 Qiaoyun%Fang%NULL%1,                                 Jian%Zhang%NULL%1,                                 Angao%Xu%NULL%1,                                 Lihuan%Liang%NULL%1,                                 Changwen%Ke%hzmedicine@163.com%1,                                Xiongfei%Ju%NULL%1,                                Qiaoyun%Fang%NULL%1,                                Jian%Zhang%NULL%1,                                Angao%Xu%NULL%1,                                Lihuan%Liang%NULL%1,                                Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,                                 Holly M.%Biggs%NULL%1,                                 Amber%Haynes%NULL%1,                                 Rebecca M.%Dahl%NULL%1,                                 Desiree%Mustaquim%NULL%1,                                 Susan I.%Gerber%NULL%1,                                 John T.%Watson%NULL%1,                                Marie E.%Killerby%lxo9@cdc.gov%1,                                Holly M.%Biggs%NULL%1,                                Amber%Haynes%NULL%1,                                Rebecca M.%Dahl%NULL%1,                                Desiree%Mustaquim%NULL%1,                                Susan I.%Gerber%NULL%1,                                John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,                                 Hee‐Dong%Jung%NULL%1,                                 Hyang‐Min%Cheong%NULL%1,                                 Anna%Lee%NULL%1,                                 Nam‐Joo%Lee%NULL%1,                                 Hyuk%Chu%NULL%1,                                 Joo‐Yeon%Lee%NULL%1,                                 Sung Soon%Kim%NULL%1,                                 Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,                                Jeong‐Min%Kim%NULL%1,                                Hee‐Dong%Jung%NULL%1,                                Hyang‐Min%Cheong%NULL%1,                                Anna%Lee%NULL%1,                                Nam‐Joo%Lee%NULL%1,                                Hyuk%Chu%NULL%1,                                Joo‐Yeon%Lee%NULL%1,                                Sung Soon%Kim%NULL%1,                                Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,                                 Juansheng%Li%lijsh16@163.com%1,                                 Lei%Meng%mleicdc@163.com%1,                                 Wanqi%Zhu%NULL%1,                                 Xinfeng%Liu%NULL%1,                                 Mei%Yang%NULL%1,                                 Deshan%Yu%NULL%2,                                 Lixia%Niu%NULL%1,                                 Xiping%Shen%NULL%1,                                Xuechao%Li%NULL%1,                                Juansheng%Li%lijsh16@163.com%1,                                Lei%Meng%mleicdc@163.com%1,                                Wanqi%Zhu%NULL%1,                                Xinfeng%Liu%NULL%1,                                Mei%Yang%NULL%1,                                Deshan%Yu%NULL%2,                                Lixia%Niu%NULL%1,                                Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,                                 James G.%Bosley%NULL%1,                                Christine M.%Litwin%clitwin@gru.edu%1,                                James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,                                 Elsie Laban%Yekwa%NULL%1,                                 Pierre%Cappy%NULL%1,                                 Astrid%Vabret%NULL%2,                                 Pascal%Boisier%NULL%1,                                 Dominique%Rousset%NULL%1,                                Richard%Njouom%NULL%1,                                Elsie Laban%Yekwa%NULL%1,                                Pierre%Cappy%NULL%1,                                Astrid%Vabret%NULL%2,                                Pascal%Boisier%NULL%1,                                Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,                                 Suvi%Lappalainen%NULL%1,                                 Timo%Vesikari%NULL%1,                                Minna%Paloniemi%NULL%1,                                Suvi%Lappalainen%NULL%1,                                Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,                                 Richard%Gonzalez%NULL%1,                                 Jin%Xu%NULL%1,                                 Yan%Xiao%NULL%1,                                 Yongjun%Li%NULL%1,                                 Hongli%Zhou%NULL%1,                                 Jianguo%Li%NULL%1,                                 Qingqing%Yang%NULL%1,                                 Jing%Zhang%NULL%1,                                 Lan%Chen%NULL%1,                                 Wei%Wang%NULL%1,                                 Guy%Vernet%NULL%1,                                 Gláucia%Paranhos‐Baccalà%NULL%1,                                 Zhong%Wang%wangzhong523@vip.163.com%1,                                 Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,                                Lili%Ren%NULL%1,                                Richard%Gonzalez%NULL%1,                                Jin%Xu%NULL%1,                                Yan%Xiao%NULL%1,                                Yongjun%Li%NULL%1,                                Hongli%Zhou%NULL%1,                                Jianguo%Li%NULL%1,                                Qingqing%Yang%NULL%1,                                Jing%Zhang%NULL%1,                                Lan%Chen%NULL%1,                                Wei%Wang%NULL%1,                                Guy%Vernet%NULL%1,                                Gláucia%Paranhos‐Baccalà%NULL%1,                                Zhong%Wang%wangzhong523@vip.163.com%1,                                Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                                 Ilada%Thongpan%ilada.cu09@gmail.com%1,                                 Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                                 Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                                 Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                                 Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                                 Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                                 Yong%Poovorawan%yong.p@chula.ac.th%1,                                Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                                Ilada%Thongpan%ilada.cu09@gmail.com%1,                                Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                                Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                                Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                                Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                                Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                                Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,                                 Janet A%Englund%NULL%1,                                 Jane Y%Kuypers%NULL%1,                                 Helen Y%Chu%NULL%1,                                 Mark C%Steinhoff%NULL%1,                                 Subarna K%Khatry%NULL%1,                                 Steve C%LeClerq%NULL%1,                                 James M%Tielsch%NULL%1,                                 Luke C%Mullany%NULL%1,                                 Laxman%Shrestha%NULL%2,                                 Joanne%Katz%jkatz1@jhu.edu%2,                                S M Iftekhar%Uddin%NULL%1,                                Janet A%Englund%NULL%1,                                Jane Y%Kuypers%NULL%1,                                Helen Y%Chu%NULL%1,                                Mark C%Steinhoff%NULL%1,                                Subarna K%Khatry%NULL%1,                                Steve C%LeClerq%NULL%1,                                James M%Tielsch%NULL%1,                                Luke C%Mullany%NULL%1,                                Laxman%Shrestha%NULL%2,                                Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,                                 Joanne%Katz%NULL%0,                                 James%Tielsch%NULL%1,                                 Subarna K.%Khatry%NULL%1,                                 Laxman%Shrestha%NULL%0,                                 Steven C.%LeClerq%NULL%1,                                 Amalia%Magaret%NULL%1,                                 Jane%Kuypers%NULL%1,                                 Mark%Steinhoff%NULL%1,                                 Janet A.%Englund%NULL%1,                                Helen Y.%Chu%helenchu@uw.edu%1,                                Joanne%Katz%NULL%0,                                James%Tielsch%NULL%1,                                Subarna K.%Khatry%NULL%1,                                Laxman%Shrestha%NULL%0,                                Steven C.%LeClerq%NULL%1,                                Amalia%Magaret%NULL%1,                                Jane%Kuypers%NULL%1,                                Mark%Steinhoff%NULL%1,                                Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,                                 Gabriele%Ihorst%NULL%1,                                 Klaus%Sure%NULL%1,                                 Astrid%Vabret%NULL%0,                                 Ronald%Dijkman%NULL%1,                                 Michel%de Vries%NULL%1,                                 Johannes%Forster%NULL%1,                                 Ben%Berkhout%NULL%1,                                 Klaus%Uberla%NULL%1,                                Lia%van der Hoek%NULL%1,                                Gabriele%Ihorst%NULL%1,                                Klaus%Sure%NULL%1,                                Astrid%Vabret%NULL%0,                                Ronald%Dijkman%NULL%1,                                Michel%de Vries%NULL%1,                                Johannes%Forster%NULL%1,                                Ben%Berkhout%NULL%1,                                Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,                                 Philip%Zachariah%pz2177@cumc.columbia.edu%1,                                 Celibell%Vargas%NULL%1,                                 Philip%LaRussa%NULL%1,                                 Ryan T%Demmer%NULL%1,                                 Yoko E%Furuya%NULL%1,                                 Susan%Whittier%NULL%1,                                 Carrie%Reed%NULL%1,                                 Melissa S%Stockwell%NULL%1,                                 Lisa%Saiman%NULL%1,                                Litty%Varghese%NULL%1,                                Philip%Zachariah%pz2177@cumc.columbia.edu%1,                                Celibell%Vargas%NULL%1,                                Philip%LaRussa%NULL%1,                                Ryan T%Demmer%NULL%1,                                Yoko E%Furuya%NULL%1,                                Susan%Whittier%NULL%1,                                Carrie%Reed%NULL%1,                                Melissa S%Stockwell%NULL%1,                                Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,                                 Ria%Lassaunière%NULL%1,                                 Tina Louise%Kresfelder%NULL%1,                                 Yvette%Westerberg%NULL%1,                                 Adele%Visser%NULL%1,                                Marietjie%Venter%marietjiev@nicd.ac.za%1,                                Ria%Lassaunière%NULL%1,                                Tina Louise%Kresfelder%NULL%1,                                Yvette%Westerberg%NULL%1,                                Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,                                 Charles%Burdet%NULL%1,                                 Guillaume%Voiriot%NULL%1,                                 François-Xavier%Lescure%NULL%1,                                 Taous%Chougar%NULL%1,                                 Olivier%Brugière%NULL%1,                                 Bruno%Crestani%NULL%1,                                 Enrique%Casalino%NULL%1,                                 Charlotte%Charpentier%NULL%1,                                 Diane%Descamps%NULL%1,                                 Jean-François%Timsit%NULL%1,                                 Yazdan%Yazdanpanah%NULL%1,                                 Nadhira%Houhou-Fidouh%NULL%1,                                 Dena L.%Schanzer%NULL%1,                                Benoit%Visseaux%NULL%1,                                Charles%Burdet%NULL%1,                                Guillaume%Voiriot%NULL%1,                                François-Xavier%Lescure%NULL%1,                                Taous%Chougar%NULL%1,                                Olivier%Brugière%NULL%1,                                Bruno%Crestani%NULL%1,                                Enrique%Casalino%NULL%1,                                Charlotte%Charpentier%NULL%1,                                Diane%Descamps%NULL%1,                                Jean-François%Timsit%NULL%1,                                Yazdan%Yazdanpanah%NULL%1,                                Nadhira%Houhou-Fidouh%NULL%1,                                Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,                                 Deshan%Yu%NULL%0,                                 Naiying%Mao%NULL%1,                                 Zhen%Zhu%NULL%1,                                 Hui%Zhang%NULL%1,                                 Zhongyi%Jiang%NULL%1,                                 Hongyu%Li%NULL%1,                                 Yan%Zhang%NULL%1,                                 Jing%Shi%NULL%1,                                 Shuang%Zhang%NULL%1,                                 Xinhua%Wang%NULL%1,                                 Wenbo%Xu%NULL%1,                                 Dong-Yan%Jin%NULL%1,                                Guohong%Huang%NULL%1,                                Deshan%Yu%NULL%0,                                Naiying%Mao%NULL%1,                                Zhen%Zhu%NULL%1,                                Hui%Zhang%NULL%1,                                Zhongyi%Jiang%NULL%1,                                Hongyu%Li%NULL%1,                                Yan%Zhang%NULL%1,                                Jing%Shi%NULL%1,                                Shuang%Zhang%NULL%1,                                Xinhua%Wang%NULL%1,                                Wenbo%Xu%NULL%1,                                Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,                                 Jiu-ling%Tuo%NULL%1,                                 Xu-bin%Huang%NULL%1,                                 Xun%Zhu%NULL%1,                                 Ding-mei%Zhang%NULL%1,                                 Kai%Zhou%NULL%1,                                 Lei%Yuan%NULL%1,                                 Hong-jiao%Luo%NULL%1,                                 Bo-jian%Zheng%NULL%1,                                 Kwok-yung%Yuen%NULL%1,                                 Meng-feng%Li%NULL%1,                                 Kai-yuan%Cao%NULL%1,                                 Lin%Xu%NULL%1,                                 Stefan%Pöhlmann%NULL%1,                                Su-fen%Zhang%NULL%1,                                Jiu-ling%Tuo%NULL%1,                                Xu-bin%Huang%NULL%1,                                Xun%Zhu%NULL%1,                                Ding-mei%Zhang%NULL%1,                                Kai%Zhou%NULL%1,                                Lei%Yuan%NULL%1,                                Hong-jiao%Luo%NULL%1,                                Bo-jian%Zheng%NULL%1,                                Kwok-yung%Yuen%NULL%1,                                Meng-feng%Li%NULL%1,                                Kai-yuan%Cao%NULL%1,                                Lin%Xu%NULL%1,                                Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%0, Dangui%Zhang%danguizhang@stu.edu.cn%1, Hui%Pan%michaelpan@stu.edu.cn%1, Fan%Zhang%lemon_fan@163.com%3, Jeremy%Farrar%jeremyjfarrar@gmail.com%1, Frieda%Law%lawf@stu.edu.cn%1, H Rogier%van Doorn%hrogier@gmail.com%1, Beiyan%Wu%1261305798@qq.com%1, William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%0, Lifeng%Pan%NULL%1, Qiao%Sun%NULL%1, Weiping%Zhu%NULL%1, Linying%Zhu%NULL%1, Chuchu%Ye%NULL%1, Caoyi%Xue%NULL%1, Yuanping%Wang%NULL%1, Qing%Liu%NULL%1, Ping%Ma%NULL%1, Huifang%Qiu%NULL%1, Srinand%Sreevatsan%NULL%2, Srinand%Sreevatsan%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%0, Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>Kowsar</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%0, Nina%Moe%NULL%0, Nina%Moe%NULL%0, Sidsel%Krokstad%NULL%2, Andreas%Christensen%NULL%2, Lars Høsøien%Skanke%NULL%2, Svein Arne%Nordbø%NULL%2, Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a population-based Norwegian hospital study in children, HMPV appeared in epidemics and with five times lower hospitalization rate than RSV.
+ Median HMPV shedding time was 13 days.
+ Low levels of HMPV were rarely detected in healthy children.
+</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%0, Inger Heimdal%Stenseng%NULL%1, Sidsel%Krokstad%NULL%0, Andreas%Christensen%NULL%0, Lars Høsøien%Skanke%NULL%0, Kari Ravndal%Risnes%NULL%1, Svein Arne%Nordbø%NULL%0, Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human coronaviruses (HCoVs) are associated with a variety of clinical presentations in children, but their role in disease remains uncertain.
+ The objective of our prospective study was to investigate HCoVs associations with various clinical presentations in hospitalized children up to 6 years of age.
+ Children hospitalized with acute bronchiolitis (AB), acute gastroenteritis (AGE), or febrile seizures (FS), and children admitted for elective surgical procedures (healthy controls) were included in the study.
+ In patients with AB, AGE, and FS, a nasopharyngeal (NP) swab and blood sample were obtained upon admission and the follow-up visit 14 days later, whereas in children with AGE a stool sample was also acquired upon admission; in healthy controls a NP swab and stool sample were taken upon admission.
+ Amplification of polymerase 1b gene was used to detect HCoVs in the specimens.
+ HCoVs-positive specimens were also examined for the presence of several other viruses.
+ HCoVs were most often detected in children with FS (19/192, 9.9%, 95% CI: 6–15%), followed by children with AGE (19/218, 8.7%, 95% CI: 5.3–13.3%) and AB (20/308, 6.5%, 95% CI: 4.0–9.8%).
+ The presence of other viruses was a common finding, most frequent in the group of children with AB (19/20, 95%, 95% CI: 75.1–99.8%), followed by FS (10/19, 52.6%, 95% CI: 28.9–75.6%) and AGE (7/19, 36.8%, 95% CI: 16.3–61.6%).
+ In healthy control children HCoVs were detected in 3/156 (1.9%, 95% CI: 0.4–5.5%) NP swabs and 1/150 (0.7%, 95% CI: 0.02–3.3%) stool samples.
+ It seems that an etiological role of HCoVs is most likely in children with FS, considering that they had a higher proportion of positive HCoVs results than patients with AB and those with AGE, and had the highest viral load; however, the co-detection of other viruses was 52.6%.
+</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%0, Andrej%Steyer%NULL%1, Marko%Pokorn%NULL%1, Tatjana%Mrvič%NULL%1, Štefan%Grosek%NULL%1, Franc%Strle%NULL%1, Lara%Lusa%NULL%1, Miroslav%Petrovec%NULL%1, Oliver%Schildgen%NULL%4, Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory syncytial virus (RSV) is considered the most common pathogen causing severe lower respiratory tract infections among infants and young children.
+ We describe the seasonality and geographical spread of RSV infection in 15 countries of the European Union and European Economic Area.
+ We performed a retrospective descriptive study of weekly laboratory-confirmed RSV detections between weeks 40/2010 and 20/2016, in patients investigated for influenza-like illness, acute respiratory infection or following the clinician’s judgment.
+ Six countries reported 4,230 sentinel RSV laboratory diagnoses from primary care and 14 countries reported 156,188 non-sentinel laboratory diagnoses from primary care or hospitals.
+ The median length of the RSV season based on sentinel and non-sentinel surveillance was 16 (range: 9–24) and 18 (range: 8–24) weeks, respectively.
+ The median peak weeks for sentinel and non-sentinel detections were week 4 (range: 48 to 11) and week 4.5 (range: 49 to 17), respectively.
+ RSV detections peaked later (r = 0.56; p = 0.0360) and seasons lasted longer with increasing latitude (r = 0.57; p = 0.0329).
+ Our data demonstrated regular seasonality with moderate correlation between timing of the epidemic and increasing latitude of the country.
+ This study supports the use of RSV diagnostics within influenza or other surveillance systems to monitor RSV seasonality and geographical spread.
+</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%0, Matti%Waris%NULL%1, Kari%Johansen%NULL%1, René%Snacken%NULL%1, Pasi%Penttinen%NULL%1, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>European Centre for Disease Prevention and Control (ECDC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little information is available on the etiology and prevalence of viruses other than influenza viruses causing influenza-like illnesses (ILIs) in China.
+ This study was conducted for simultaneous detection and identification of 14 respiratory viruses in Huizhou using real-time PCR.
+ In total, viruses were detected in 48.66 % of ILI patient samples, in which influenza virus (19.98 %) was the most commonly detected, followed by rhinovirus (7.46 %), human coronaviruses (3.63 %), human metapneumovirus (3.06 %), parainfluenza virus (3.06 %), respiratory syncytial virus (2.39 %), adenovirus (2.29 %), and human bocavirus (1.43 %).
+ Co-infections occurred in 5.35 % of all tested specimens and 11.00 % (56/509) of infected patients.
+ Children under 5 years and adults older than 60 years were more likely to have one or more detectable viruses associated with their ILI (OR=1.75, 95 % CI: 1.37; 2.23).
+ Influenza virus was detected during each month of each year, and increased viral activity was observed in 2013. Infections with adenovirus and human metapneumovirus had characteristic seasonal patterns.
+ No significant differences were found in positive the rate between the gender groups, while significantly differences in positive rate were found among the different age groups (P-value&amp;lt;0.001).
+ This study confirmed that multiple respiratory viruses may circulate concurrently in the population and play an important role in the etiology of ILI.
+ The most frequent symptoms associated with respiratory viruses were sore throat, rhinorrhea and headache.
+ This information needs to be considered by clinicians when treating patients presenting with ILI, and it could serve as a reference for government officers when designing and implementing effective intervention plans.
+</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%0, Qiaoyun%Fang%NULL%1, Jian%Zhang%NULL%1, Angao%Xu%NULL%1, Lihuan%Liang%NULL%1, Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>Springer Vienna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              During July 2014–June 2017, 854,575 human coronavirus tests were reported to NREVSS.
+</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%0, Holly M.%Biggs%NULL%2, Amber%Haynes%NULL%1, Rebecca M.%Dahl%NULL%1, Desiree%Mustaquim%NULL%1, Susan I.%Gerber%NULL%2, John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The prevalence of eight respiratory viruses detected in patients with acute respiratory infections (ARIs) in Korea was investigated through analysis of data recorded by the Korea Influenza and Respiratory Viruses Surveillance System (KINRESS) from 2013 to 2015. Nasal aspirate and throat swabs specimens were collected from 36 915 patients with ARIs, and viral nucleic acids were detected by real‐time (reverse‐transcription) polymerase chain reaction for eight respiratory viruses, including human respiratory syncytial viruses (HRSVs), influenza viruses (IFVs), human parainfluenza viruses (HPIVs), human coronaviruses (HCoVs), human rhinovirus (HRV), human adenovirus (HAdV), human bocavirus (HBoV), and human metapneumovirus (HMPV).
+ The overall positive rate of patient specimens was 49.4% (18 236/36 915), 5% of which carried two or more viruses simultaneously.
+ HRV (15.6%) was the most predominantly detected virus, followed by IFVs (14.6%), HAdV (7.5%), HPIVs (5.8%), HCoVs (4.2%), HRSVs (3.6%), HBoV (1.9%), and HMPV (1.6%).
+ Most of the ARIs were significantly correlated with clinical symptoms of fever, cough, and runny nose.
+ Although HRV and HAdV were frequently detected throughout the year in patients, other respiratory viruses showed apparent seasonality.
+ HRSVs and IFVs were the major causative agents of acute respiratory diseases in infants and young children.
+ Overall, this study demonstrates a meaningful relationship between viral infection and typical manifestations of known clinical features as well as seasonality, age distribution, and co‐infection among respiratory viruses.
+ Therefore, these data could provide useful information for public health management and to enhance patient care for primary clinicians.
+</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%0, Hee‐Dong%Jung%NULL%2, Hee‐Dong%Jung%NULL%0, Hyang‐Min%Cheong%NULL%1, Anna%Lee%NULL%1, Nam‐Joo%Lee%NULL%1, Hyuk%Chu%NULL%1, Joo‐Yeon%Lee%NULL%1, Sung Soon%Kim%NULL%1, Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding etiological role and epidemiological profile is needed to improve clinical management and prevention of acute respiratory infections (ARIs).
+ A 5‐year prospective study about active surveillance for outpatients and inpatients with ARIs was conducted in Gansu province, China, from January 2011 to November 2015. Respiratory specimens were collected from patients and tested for eight respiratory viruses using polymerase chain reaction (PCR) or reverse transcription polymerase chain reaction (RT‐PCR).
+ In this study, 2768 eligible patients with median age of 43 years were enrolled including pneumonia (1368, 49.2%), bronchitis (435, 15.7%), upper respiratory tract infection or URTI (250, 9.0%), and unclassified ARI (715, 25.8%).
+ Overall, 29.2% (808/2768) were positive for any one of eight viruses, of whom 130 cases were identified with two or more viruses.
+ Human rhinovirus (HRV) showed the highest detection rate (8.6%), followed by influenza virus (Flu, 7.3%), respiratory syncytial virus (RSV, 6.1%), human coronavirus (hCoV, 4.3%), human parainfluenza (PIV, 4.0%), adenovirus (ADV, 2.1%), human metapneumovirus (hMPV, 1.6%), and human bocavirus (hBoV, 0.7%).
+ Compared with URTI, RSV was more likely identified in pneumonia (χ2 = 12.720, P &amp;lt; 0.001) and hCoV was more commonly associated with bronchitis than pneumonia (χ2 = 15.019, P &amp;lt; 0.001).
+ In patients aged less than 5 years, RSV showed the highest detection rate and hCoV was the most frequent virus detected in adults and elderly.
+ The clear epidemical seasons were observed in HRV, Flu, and hCoV infections.
+ These findings could serve as a reference for local health authorities in drawing up further plans to prevent and control ARIs associated with viral etiologies.
+</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%0, Juansheng%Li%lijsh16@163.com%1, Lei%Meng%mleicdc@163.com%2, Lei%Meng%mleicdc@163.com%0, Wanqi%Zhu%NULL%1, Xinfeng%Liu%NULL%1, Mei%Yang%NULL%1, Deshan%Yu%NULL%2, Lixia%Niu%NULL%1, Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory tract infections (RTIs) are a leading cause of mortality and morbidity.
+ Seasonality has been reported for many viruses, including influenza virus, respiratory syncytial virus (RSV), and the recently described human metapneumovirus (hMPV).
+ We hypothesize that the availability of rapid, multiplex PCR diagnostics will provide better clinical care and new insights into the etiology and clinical spectrum of RTIs.
+ We conducted a retrospective analysis of the incidence of respiratory pathogens at a 500-bed adult and 154-bed pediatric hospital tertiary care center.
+ A total of 939 specimens from patients with an age range of 5 days to 91 years (median, 2 years) were tested by a multiplex respiratory pathogen PCR from November 14, 2011 to November 13, 2012. Sixty-five percent of specimens were positive for at least one pathogen.
+ As the age of the patient increased, the positivity rate for the PCR decreased proportionately.
+ Rhinoviruses/enteroviruses (Rhino/Entero) were the most prevalent (34.3 %) followed by RSV (19.2 %) and hMPV (6.2 %).
+ Twelve percent of the positive samples were positive for multiple analytes, with Rhino/Entero and RSV being the most common combination.
+ The peak months were September and May for Rhino/Entero infections, January for RSV and February for coronavirus.
+ hMPV peaked 2 months after RSV, as has been observed recently in other studies.
+ Multiplex PCR provides rapid diagnostic information that can be used to make knowledgeable clinical decisions and potentially reduce the use of antibiotics.
+ Active respiratory PCR surveillance could also predict seasonal respiratory epidemics to allow for adequate planning of additional infection control measures.
+</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%0, James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Background.
+ No information is available on the viral etiology of upper respiratory tract infections in Cameroon.
+</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%0, Elsie Laban%Yekwa%NULL%1, Pierre%Cappy%NULL%1, Astrid%Vabret%NULL%2, Pascal%Boisier%NULL%1, Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Human coronaviruses (HCoVs) OC43, 229E, NL63 and HKU1 were detected in children.
+</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%0, Suvi%Lappalainen%NULL%1, Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human coronaviruses (HCoVs) are a common etiological agent of acute respiratory tract infections.
+ HCoV infections, especially those caused by the two HCoVs identified most recently, NL63 and HKU‐1, have not been characterized fully.
+ To evaluate the prevalence and clinical presentations of HKU1 and NL63 in adults with acute respiratory tract infections, an investigation of HCoV infections in Beijing, China from 2005 to 2009 was performed by using reverse transcriptase PCR assays and sequencing analysis.
+ Among 8,396 respiratory specimens studied, 87 (1%) clinical samples were positive for HCoVs, of which 50 samples (0.6% of the total) were positive for HCoV‐OC43, 15 (0.2%) for HCoV‐229E, 14 (0.2%) for HCoV‐HKU1, and 8 (0.1%) for HCoV‐NL63. The prevalence of HCoV infection in adults exhibited distinct seasonal fluctuations during the study period.
+ In addition, patients positive for HCoV‐229E infections were more likely to be co‐infected with other respiratory viruses.
+ Enterovirus, rhinovirus, and parainfluenza virus type 3 were the most common viruses found in patients with HCoV infections.
+ The demographic and clinical data present in this study of HCoV infections in adults with acute respiratory tract infections should improve our understanding of the pathogenesis of HCoVs.
+ J.
+ Med.
+ Virol.
+ 83:291–297, 2011. © 2010 Wiley‐Liss, Inc.
+</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%0, Richard%Gonzalez%NULL%1, Jin%Xu%NULL%1, Yan%Xiao%NULL%18, Yongjun%Li%NULL%2, Hongli%Zhou%NULL%1, Jianguo%Li%NULL%4, Qingqing%Yang%NULL%1, Jing%Zhang%NULL%2, Lan%Chen%NULL%4, Wei%Wang%NULL%12, Guy%Vernet%NULL%1, Gláucia%Paranhos‐Baccalà%NULL%1, Zhong%Wang%wangzhong523@vip.163.com%4, Jianwei%Wang%wangjw28@ipbcams.ac.cn%15]</t>
+  </si>
+  <si>
+    <t>Wiley Subscription Services, Inc., A Wiley Company</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%0, Ilada%Thongpan%ilada.cu09@gmail.com%1, Sunchai%Payungporn%sp.medbiochemcu@gmail.com%2, Chanpim%Vuthitanachot%viboovut@hotmail.com%1, Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1, Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1, Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1, Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human coronaviruses (HCoVs) are associated with respiratory illnesses in infants aged 0–6 months in a rural South Asian setting.
+ HCoV incidence increases beyond the first month of life.
+ Four tested species (229E, OC43, NL63, HKU1) were present.
+</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%0, Janet A%Englund%NULL%1, Jane Y%Kuypers%NULL%1, Helen Y%Chu%NULL%5, Mark C%Steinhoff%NULL%1, Subarna K%Khatry%NULL%1, Steve C%LeClerq%NULL%1, James M%Tielsch%NULL%1, Luke C%Mullany%NULL%1, Laxman%Shrestha%NULL%2, Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%0, Joanne%Katz%NULL%0, James%Tielsch%NULL%1, Subarna K.%Khatry%NULL%1, Laxman%Shrestha%NULL%0, Steven C.%LeClerq%NULL%1, Amalia%Magaret%NULL%1, Jane%Kuypers%NULL%1, Mark%Steinhoff%NULL%1, Janet A.%Englund%NULL%4]</t>
+  </si>
+  <si>
+    <t>W.B. Saunders</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%0, Gabriele%Ihorst%NULL%1, Klaus%Sure%NULL%1, Astrid%Vabret%NULL%0, Ronald%Dijkman%NULL%1, Michel%de Vries%NULL%1, Johannes%Forster%NULL%1, Ben%Berkhout%NULL%1, Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%0, Philip%Zachariah%pz2177@cumc.columbia.edu%2, Celibell%Vargas%NULL%1, Philip%LaRussa%NULL%1, Ryan T%Demmer%NULL%1, Yoko E%Furuya%NULL%1, Susan%Whittier%NULL%1, Carrie%Reed%NULL%1, Melissa S%Stockwell%NULL%1, Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The contribution of viruses to lower respiratory tract disease in sub‐Saharan Africa where human immunodeficiency virus may exacerbate respiratory infections is not well defined.
+ No data exist on some of these viruses for Southern Africa.
+ Comprehensive molecular screening may define the role of these viruses as single and co‐infections in a population with a high HIV‐AIDS burden.
+ To address this, children less than 5 years of age with respiratory infections from 3 public sector hospitals, Pretoria South Africa were screened for 14 respiratory viruses, by PCR over 2 years.
+ Healthy control children from the same region were included.
+ Rhinovirus was identified in 33% of patients, RSV (30.1%), PIV‐3 (7.8%), hBoV (6.1%), adenovirus (5.7%), hMPV (4.8%), influenza A (3.4%), coronavirus NL63 (2.1%), and OC43 (1.8%).
+ PIV‐1, PIV‐2, CoV‐229E, ‐HKU1, and influenza B occurred in &amp;lt;1.5% of patients.
+ Most cases with adenovirus, influenza A, hMPV, hBoV, coronaviruses, and WU virus occurred as co‐infections while RSV, PIV‐3, and rhinovirus were identified most frequently as the only respiratory pathogen.
+ Rhinovirus but not RSV or PIV‐3 was also frequently identified in healthy controls.
+ A higher HIV sero‐prevalence was noticed in patients with co‐infections although co‐infections were not associated with more severe disease.
+ RSV, hPMV, PIV‐3, and influenza viruses had defined seasons while rhinovirus, adenovirus, and coronavirus infections occurred year round in this temporal region of sub‐Saharan Africa.
+ J.
+ Med.
+ Virol.
+ 83:1458–1468, 2011. © 2011 Wiley‐Liss, Inc.
+</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%0, Ria%Lassaunière%NULL%1, Tina Louise%Kresfelder%NULL%1, Yvette%Westerberg%NULL%1, Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%0, Charles%Burdet%NULL%2, Charles%Burdet%NULL%0, Guillaume%Voiriot%NULL%3, François-Xavier%Lescure%NULL%4, Taous%Chougar%NULL%1, Olivier%Brugière%NULL%1, Bruno%Crestani%NULL%1, Enrique%Casalino%NULL%1, Charlotte%Charpentier%NULL%1, Diane%Descamps%NULL%1, Jean-François%Timsit%NULL%1, Yazdan%Yazdanpanah%NULL%1, Nadhira%Houhou-Fidouh%NULL%1, Dena L.%Schanzer%NULL%2, Dena L.%Schanzer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%0, Deshan%Yu%NULL%0, Naiying%Mao%NULL%1, Zhen%Zhu%NULL%1, Hui%Zhang%NULL%0, Zhongyi%Jiang%NULL%1, Hongyu%Li%NULL%1, Yan%Zhang%NULL%3, Jing%Shi%NULL%6, Shuang%Zhang%NULL%1, Xinhua%Wang%NULL%1, Wenbo%Xu%NULL%4, Dong-Yan%Jin%NULL%2, Dong-Yan%Jin%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human coronavirus (HCoV) is one of the most common causes of respiratory tract infection throughout the world.
+ To investigate the epidemiological and genetic variation of HCoV in Guangzhou, south China, we collected totally 13048 throat and nasal swab specimens from adults and children with fever and acute upper respiratory infection symptoms in Gunazhou, south China between July 2010 and June 2015, and the epidemiological features of HCoV and its species were studied.
+ Specimens were screened for HCoV by real-time RT-PCR, and 7 other common respiratory viruses were tested simultaneously by PCR or real-time PCR.
+ HCoV was detected in 294 cases (2.25%) of the 13048 samples, with most of them inpatients (251 cases, 85.4% of HCoV positive cases) and young children not in nursery (53.06%, 156 out of 294 HCoV positive cases).
+ Four HCoVs, as OC43, 229E, NL63 and HKU1 were detected prevalent during 2010–2015 in Guangzhou, and among the HCoV positive cases, 60.20% were OC43, 16.67% were 229E, 14.97% were NL63 and 7.82% were HKU1. The month distribution showed that totally HCoV was prevalent in winter, but differences existed in different species.
+ The 5 year distribution of HCoV showed a peak-valley distribution trend, with the detection rate higher in 2011 and 2013 whereas lower in 2010, 2012 and 2014. The age distribution revealed that children (especially those &amp;lt;3 years old) and old people (&amp;gt;50 years) were both high risk groups to be infected by HCoV.
+ Of the 294 HCoV positive patients, 34.69% (101 cases) were co-infected by other common respiratory viruses, and influenza virus was the most common co-infecting virus (30/101, 29.70%).
+ Fifteen HCoV-OC43 positive samples of 2013–2014 were selected for S gene sequencing and phylogenetic analysis, and the results showed that the 15 strains could be divided into 2 clusters in the phylogenetic tree, 12 strains of which formed a separate cluster that was closer to genotype G found in Malaysia.
+ It was revealed for the first time that genotype B and genotype G of HCoV-OC43 co-circulated and the newly defined genotype G was epidemic as a dominant genotype during 2013–2014 in Guanzhou, south China.
+</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%0, Jiu-ling%Tuo%NULL%1, Xu-bin%Huang%NULL%1, Xun%Zhu%NULL%1, Ding-mei%Zhang%NULL%1, Kai%Zhou%NULL%1, Lei%Yuan%NULL%1, Hong-jiao%Luo%NULL%1, Bo-jian%Zheng%NULL%1, Kwok-yung%Yuen%NULL%1, Meng-feng%Li%NULL%1, Kai-yuan%Cao%NULL%1, Lin%Xu%NULL%1, Stefan%Pöhlmann%NULL%3, Stefan%Pöhlmann%NULL%0, Stefan%Pöhlmann%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -4034,25 +4364,25 @@
         <v>43678</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>1101</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>198</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>848</v>
+        <v>314</v>
       </c>
       <c r="J2" t="s">
         <v>314</v>
@@ -4066,25 +4396,25 @@
         <v>42494</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>1102</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>226</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
         <v>97</v>
       </c>
       <c r="I3" t="s">
-        <v>848</v>
+        <v>314</v>
       </c>
       <c r="J3" t="s">
         <v>314</v>
@@ -4098,28 +4428,28 @@
         <v>40909</v>
       </c>
       <c r="C4" t="s">
-        <v>459</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>679</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>461</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>462</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
         <v>314</v>
       </c>
       <c r="J4" t="s">
-        <v>923</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -4136,7 +4466,7 @@
         <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>1103</v>
+        <v>1153</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -4148,10 +4478,10 @@
         <v>98</v>
       </c>
       <c r="I5" t="s">
-        <v>852</v>
+        <v>314</v>
       </c>
       <c r="J5" t="s">
-        <v>314</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -4162,25 +4492,25 @@
         <v>41730</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>1104</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>226</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
         <v>97</v>
       </c>
       <c r="I6" t="s">
-        <v>848</v>
+        <v>314</v>
       </c>
       <c r="J6" t="s">
         <v>314</v>
@@ -4200,7 +4530,7 @@
         <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>1105</v>
+        <v>1155</v>
       </c>
       <c r="F7" t="s">
         <v>73</v>
@@ -4212,10 +4542,10 @@
         <v>99</v>
       </c>
       <c r="I7" t="s">
-        <v>855</v>
+        <v>314</v>
       </c>
       <c r="J7" t="s">
-        <v>314</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -4232,7 +4562,7 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>1106</v>
+        <v>1157</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -4244,10 +4574,10 @@
         <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>855</v>
+        <v>314</v>
       </c>
       <c r="J8" t="s">
-        <v>314</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -4264,7 +4594,7 @@
         <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>1107</v>
+        <v>1159</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -4276,10 +4606,10 @@
         <v>101</v>
       </c>
       <c r="I9" t="s">
-        <v>855</v>
+        <v>314</v>
       </c>
       <c r="J9" t="s">
-        <v>314</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -4293,10 +4623,10 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>1161</v>
       </c>
       <c r="E10" t="s">
-        <v>1108</v>
+        <v>1162</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -4308,10 +4638,10 @@
         <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>855</v>
+        <v>314</v>
       </c>
       <c r="J10" t="s">
-        <v>314</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -4322,28 +4652,28 @@
         <v>42061</v>
       </c>
       <c r="C11" t="s">
-        <v>469</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>686</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>461</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>931</v>
+        <v>97</v>
       </c>
       <c r="I11" t="s">
         <v>314</v>
       </c>
       <c r="J11" t="s">
-        <v>932</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -4357,10 +4687,10 @@
         <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>1163</v>
       </c>
       <c r="E12" t="s">
-        <v>1109</v>
+        <v>1164</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -4372,10 +4702,10 @@
         <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>855</v>
+        <v>314</v>
       </c>
       <c r="J12" t="s">
-        <v>314</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -4389,10 +4719,10 @@
         <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>1165</v>
       </c>
       <c r="E13" t="s">
-        <v>1110</v>
+        <v>1166</v>
       </c>
       <c r="F13" t="s">
         <v>78</v>
@@ -4404,10 +4734,10 @@
         <v>104</v>
       </c>
       <c r="I13" t="s">
-        <v>855</v>
+        <v>314</v>
       </c>
       <c r="J13" t="s">
-        <v>314</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -4421,10 +4751,10 @@
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>1168</v>
       </c>
       <c r="E14" t="s">
-        <v>1111</v>
+        <v>1169</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -4436,10 +4766,10 @@
         <v>105</v>
       </c>
       <c r="I14" t="s">
-        <v>852</v>
+        <v>314</v>
       </c>
       <c r="J14" t="s">
-        <v>314</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -4453,10 +4783,10 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>1171</v>
       </c>
       <c r="E15" t="s">
-        <v>1112</v>
+        <v>1172</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>
@@ -4468,10 +4798,10 @@
         <v>106</v>
       </c>
       <c r="I15" t="s">
-        <v>864</v>
+        <v>314</v>
       </c>
       <c r="J15" t="s">
-        <v>314</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -4485,10 +4815,10 @@
         <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>1174</v>
       </c>
       <c r="E16" t="s">
-        <v>1113</v>
+        <v>1175</v>
       </c>
       <c r="F16" t="s">
         <v>81</v>
@@ -4500,10 +4830,10 @@
         <v>107</v>
       </c>
       <c r="I16" t="s">
-        <v>855</v>
+        <v>314</v>
       </c>
       <c r="J16" t="s">
-        <v>314</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -4514,28 +4844,28 @@
         <v>38869</v>
       </c>
       <c r="C17" t="s">
-        <v>477</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>478</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>692</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>461</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>480</v>
+        <v>97</v>
       </c>
       <c r="I17" t="s">
         <v>314</v>
       </c>
       <c r="J17" t="s">
-        <v>939</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -4546,28 +4876,28 @@
         <v>42736</v>
       </c>
       <c r="C18" t="s">
-        <v>481</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>693</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G18" t="s">
-        <v>461</v>
+        <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>483</v>
+        <v>97</v>
       </c>
       <c r="I18" t="s">
         <v>314</v>
       </c>
       <c r="J18" t="s">
-        <v>941</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -4578,28 +4908,28 @@
         <v>42736</v>
       </c>
       <c r="C19" t="s">
-        <v>484</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>694</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>461</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>486</v>
+        <v>97</v>
       </c>
       <c r="I19" t="s">
         <v>314</v>
       </c>
       <c r="J19" t="s">
-        <v>943</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -4613,10 +4943,10 @@
         <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>1177</v>
       </c>
       <c r="E20" t="s">
-        <v>1114</v>
+        <v>1178</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -4628,10 +4958,10 @@
         <v>108</v>
       </c>
       <c r="I20" t="s">
-        <v>855</v>
+        <v>314</v>
       </c>
       <c r="J20" t="s">
-        <v>314</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -4645,10 +4975,10 @@
         <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>1179</v>
       </c>
       <c r="E21" t="s">
-        <v>1115</v>
+        <v>1180</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
@@ -4660,10 +4990,10 @@
         <v>109</v>
       </c>
       <c r="I21" t="s">
-        <v>852</v>
+        <v>314</v>
       </c>
       <c r="J21" t="s">
-        <v>314</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -4674,28 +5004,28 @@
         <v>2015</v>
       </c>
       <c r="C22" t="s">
-        <v>489</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>697</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>461</v>
+        <v>70</v>
       </c>
       <c r="H22" t="s">
-        <v>491</v>
+        <v>97</v>
       </c>
       <c r="I22" t="s">
         <v>314</v>
       </c>
       <c r="J22" t="s">
-        <v>947</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -4709,10 +5039,10 @@
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>1181</v>
       </c>
       <c r="E23" t="s">
-        <v>1116</v>
+        <v>1182</v>
       </c>
       <c r="F23" t="s">
         <v>84</v>
@@ -4724,10 +5054,10 @@
         <v>97</v>
       </c>
       <c r="I23" t="s">
-        <v>855</v>
+        <v>314</v>
       </c>
       <c r="J23" t="s">
-        <v>314</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -4741,10 +5071,10 @@
         <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>1183</v>
       </c>
       <c r="E24" t="s">
-        <v>1117</v>
+        <v>1184</v>
       </c>
       <c r="F24" t="s">
         <v>85</v>
@@ -4756,10 +5086,10 @@
         <v>110</v>
       </c>
       <c r="I24" t="s">
-        <v>864</v>
+        <v>314</v>
       </c>
       <c r="J24" t="s">
-        <v>314</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -4773,10 +5103,10 @@
         <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>1186</v>
       </c>
       <c r="E25" t="s">
-        <v>1118</v>
+        <v>1187</v>
       </c>
       <c r="F25" t="s">
         <v>86</v>
@@ -4788,10 +5118,10 @@
         <v>111</v>
       </c>
       <c r="I25" t="s">
-        <v>855</v>
+        <v>314</v>
       </c>
       <c r="J25" t="s">
-        <v>314</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -4802,25 +5132,25 @@
         <v>43906</v>
       </c>
       <c r="C26" t="s">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>1119</v>
+        <v>68</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="G26" t="s">
-        <v>226</v>
+        <v>70</v>
       </c>
       <c r="H26" t="s">
         <v>97</v>
       </c>
       <c r="I26" t="s">
-        <v>848</v>
+        <v>314</v>
       </c>
       <c r="J26" t="s">
         <v>314</v>
@@ -4840,7 +5170,7 @@
         <v>136</v>
       </c>
       <c r="E27" t="s">
-        <v>1120</v>
+        <v>1189</v>
       </c>
       <c r="F27" t="s">
         <v>87</v>
@@ -4852,10 +5182,10 @@
         <v>112</v>
       </c>
       <c r="I27" t="s">
-        <v>852</v>
+        <v>314</v>
       </c>
       <c r="J27" t="s">
-        <v>314</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -4866,7 +5196,7 @@
         <v>40422</v>
       </c>
       <c r="C28" t="s">
-        <v>497</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
         <v>41</v>
@@ -4875,19 +5205,19 @@
         <v>68</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
-        <v>461</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>498</v>
+        <v>97</v>
       </c>
       <c r="I28" t="s">
         <v>314</v>
       </c>
       <c r="J28" t="s">
-        <v>941</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -4901,10 +5231,10 @@
         <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>1191</v>
       </c>
       <c r="E29" t="s">
-        <v>1121</v>
+        <v>1192</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
@@ -4916,10 +5246,10 @@
         <v>113</v>
       </c>
       <c r="I29" t="s">
-        <v>855</v>
+        <v>314</v>
       </c>
       <c r="J29" t="s">
-        <v>314</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -4936,7 +5266,7 @@
         <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>1122</v>
+        <v>1193</v>
       </c>
       <c r="F30" t="s">
         <v>89</v>
@@ -4948,10 +5278,10 @@
         <v>114</v>
       </c>
       <c r="I30" t="s">
-        <v>864</v>
+        <v>314</v>
       </c>
       <c r="J30" t="s">
-        <v>314</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -4968,7 +5298,7 @@
         <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>1123</v>
+        <v>1195</v>
       </c>
       <c r="F31" t="s">
         <v>90</v>
@@ -4980,10 +5310,10 @@
         <v>115</v>
       </c>
       <c r="I31" t="s">
-        <v>864</v>
+        <v>314</v>
       </c>
       <c r="J31" t="s">
-        <v>314</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -5000,7 +5330,7 @@
         <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>1124</v>
+        <v>1196</v>
       </c>
       <c r="F32" t="s">
         <v>91</v>
@@ -5012,10 +5342,10 @@
         <v>116</v>
       </c>
       <c r="I32" t="s">
-        <v>855</v>
+        <v>314</v>
       </c>
       <c r="J32" t="s">
-        <v>314</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -5029,10 +5359,10 @@
         <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>1197</v>
       </c>
       <c r="E33" t="s">
-        <v>1125</v>
+        <v>1198</v>
       </c>
       <c r="F33" t="s">
         <v>92</v>
@@ -5044,10 +5374,10 @@
         <v>117</v>
       </c>
       <c r="I33" t="s">
-        <v>855</v>
+        <v>314</v>
       </c>
       <c r="J33" t="s">
-        <v>314</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -5064,7 +5394,7 @@
         <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>1126</v>
+        <v>1199</v>
       </c>
       <c r="F34" t="s">
         <v>93</v>
@@ -5076,10 +5406,10 @@
         <v>118</v>
       </c>
       <c r="I34" t="s">
-        <v>855</v>
+        <v>314</v>
       </c>
       <c r="J34" t="s">
-        <v>314</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -5096,7 +5426,7 @@
         <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>1127</v>
+        <v>1200</v>
       </c>
       <c r="F35" t="s">
         <v>94</v>
@@ -5108,10 +5438,10 @@
         <v>119</v>
       </c>
       <c r="I35" t="s">
-        <v>855</v>
+        <v>314</v>
       </c>
       <c r="J35" t="s">
-        <v>314</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -5125,10 +5455,10 @@
         <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>1201</v>
       </c>
       <c r="E36" t="s">
-        <v>1128</v>
+        <v>1202</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>
@@ -5140,10 +5470,10 @@
         <v>120</v>
       </c>
       <c r="I36" t="s">
-        <v>855</v>
+        <v>314</v>
       </c>
       <c r="J36" t="s">
-        <v>314</v>
+        <v>1156</v>
       </c>
     </row>
   </sheetData>
